--- a/data/trans_dic/P30_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 40,83</t>
+          <t>5,66; 29,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 29,35</t>
+          <t>8,04; 34,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 26,52</t>
+          <t>3,77; 28,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 24,8</t>
+          <t>4,24; 31,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 20,41</t>
+          <t>7,77; 30,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 17,89</t>
+          <t>5,79; 25,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 30,13</t>
+          <t>4,67; 27,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,23; 21,4</t>
+          <t>11,49; 48,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 19,06</t>
+          <t>9,74; 25,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 24,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 23,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 38,91</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 31,18</t>
+          <t>14,8; 27,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 36,0</t>
+          <t>17,28; 32,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 34,07</t>
+          <t>15,11; 30,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 26,77</t>
+          <t>18,94; 34,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 33,22</t>
+          <t>15,64; 27,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 30,55</t>
+          <t>18,63; 31,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 27,12</t>
+          <t>14,22; 26,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 32,66</t>
+          <t>16,32; 28,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,32; 29,82</t>
+          <t>16,81; 26,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 29,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 26,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 29,53</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 24,91</t>
+          <t>14,38; 28,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 30,3</t>
+          <t>12,23; 25,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 29,87</t>
+          <t>17,94; 34,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 20,04</t>
+          <t>15,18; 29,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 26,9</t>
+          <t>10,62; 22,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 19,79</t>
+          <t>13,72; 26,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,14</t>
+          <t>7,49; 17,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 26,17</t>
+          <t>12,53; 25,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,18; 22,88</t>
+          <t>13,86; 23,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 23,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 23,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 24,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 26,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 30,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,77; 28,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 22,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 24,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 26,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 27,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 28,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 22,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 25,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 19,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 27,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 22,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 24,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 21,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 26,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19768</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21308</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16666</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30217</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24173</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15450</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53050</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43941</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36758</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32008</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83267</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7297; 37571</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8474; 36480</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4298; 32493</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7539; 56141</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11065; 43711</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6690; 29098</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5712; 33703</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24581; 103597</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26424; 68825</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21861; 55183</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16580; 55071</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44987; 152373</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89814</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90252</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>87811</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>134479</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97745</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95512</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>74559</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>105906</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>187559</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>185764</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>162370</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>240385</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>63580; 119728</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>64651; 119820</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>60359; 122596</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>97860; 176028</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>72630; 128094</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>70964; 119869</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53341; 100543</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>80718; 139975</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>150317; 236735</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>151191; 222818</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>128592; 203259</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>193802; 298715</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68762</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50136</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69849</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75661</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>66907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66080</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39114</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70883</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135669</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>116216</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>108964</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>146543</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47861; 96386</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34532; 72058</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49405; 95411</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53610; 104963</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45503; 96407</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>47291; 92321</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24515; 57929</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49662; 99688</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>105543; 177665</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87287; 146286</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>82954; 140539</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>112919; 184387</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>178344</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>161697</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>174326</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>240357</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>188825</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>177042</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>129015</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>229838</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>367169</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>338739</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>303342</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>470195</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>138993; 219642</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>125449; 201218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>136528; 219420</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>185522; 303727</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>150320; 237118</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>143729; 216585</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100799; 163535</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>182116; 304170</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>310583; 430209</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>291712; 394257</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>250041; 351970</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>401272; 563020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
